--- a/biology/Botanique/Arboretum_de_La_Roche-Guyon/Arboretum_de_La_Roche-Guyon.xlsx
+++ b/biology/Botanique/Arboretum_de_La_Roche-Guyon/Arboretum_de_La_Roche-Guyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arboretum de La Roche-Guyon, ou arboretum de la Roche, est un arboretum public de 13 ha, géré par l'Agence des Espaces Verts d'Île-de-France (A.E.V.). Situé au cœur d'un massif forestier de 350 ha, forêt régionale de La Roche-Guyon (département du Val-d'Oise, France), l'arboretum est un lieu de promenades aux paysages multiples évoluant au rythme des saisons.
 L’arboretum était, jusqu'en 2014, libre d'accès toute l'année pour les promeneurs agissant à titre privé. Cependant, toute manifestation (scolaire, culturelle, sportive, etc.) était soumise à l’autorisation préalable de l’A.E.V. La demande devait être adressée au minimum un mois à l’avance et faisait l’objet d’une convention.
@@ -512,7 +524,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plantation, qui couvre 12 hectares, est une représentation géographique originale de la région Île-de-France. Chaque  département est représenté par un massif d'arbres caractéristiques : 
 des charmes pour le Val-de-Marne ;
@@ -552,7 +566,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ilex aquifolium 'Ferox'.
